--- a/FastSearch.xlsx
+++ b/FastSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FastSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCFDE719-9E25-401C-A871-CC44BABBC94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE3100-BC3C-41EA-A300-8EFB761BCAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{E7B18358-42ED-4B76-8751-3D0FF32E4F52}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Search for phoenix 10000 times using Character Tree took 3585100ns,3.5851ms,0.0035851s</t>
   </si>
@@ -142,13 +142,36 @@
   </si>
   <si>
     <t>Search Speed (a)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All times in milliseconds</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +181,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +225,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +545,7 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -658,7 +692,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="16.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>

--- a/FastSearch.xlsx
+++ b/FastSearch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FastSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE3100-BC3C-41EA-A300-8EFB761BCAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D51F8-4C42-4E00-9955-0AA3CD2A4363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{E7B18358-42ED-4B76-8751-3D0FF32E4F52}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Search for phoenix 10000 times using Character Tree took 3585100ns,3.5851ms,0.0035851s</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Search for phoenix 10000 times using MapReduce took 8829807300ns,8829.8073ms,8.8298073s</t>
   </si>
   <si>
-    <t>Search for phoenix 10000 times using Better LINQ took 1296197700ns,1296.1977ms,1.2961977s</t>
-  </si>
-  <si>
-    <t>Search for phoenix 10000 times using LINQ took 1671802800ns,1671.8028ms,1.6718028s</t>
-  </si>
-  <si>
     <t>Search for catherine 10000 times using Character Tree took 3725900ns,3.7259ms,0.0037259s</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>Search for catherine 10000 times using MapReduce took 11759705300ns,11759.7053ms,11.7597053s</t>
   </si>
   <si>
-    <t>Search for catherine 10000 times using Better LINQ took 1155302400ns,1155.3024ms,1.1553024s</t>
-  </si>
-  <si>
-    <t>Search for catherine 10000 times using LINQ took 1752473600ns,1752.4736ms,1.7524736s</t>
-  </si>
-  <si>
     <t>Character Tree indexed 10000 took 192022000ns,192.022ms,0.192022s</t>
   </si>
   <si>
@@ -75,21 +63,12 @@
     <t>Map Reduce indexed 10000 took 4571800ns,4.5718ms,0.0045718s</t>
   </si>
   <si>
-    <t>Better LINQ indexed 10000 took 39337700ns,39.3377ms,0.0393377s</t>
-  </si>
-  <si>
-    <t>LINQ indexed 10000 took 500ns,0.0005ms,5E-07s</t>
-  </si>
-  <si>
     <t>Load 10M passwords took 1214748400ns,1214.7484ms,1.2147484s</t>
   </si>
   <si>
     <t>LINQ</t>
   </si>
   <si>
-    <t>Better LINQ</t>
-  </si>
-  <si>
     <t>MapReduce</t>
   </si>
   <si>
@@ -117,12 +96,6 @@
     <t>Search for PHOENIX 10000 times using MapReduce took 8942302400ns,8942.3024ms,8.9423024s</t>
   </si>
   <si>
-    <t>Search for PHOENIX 10000 times using Better LINQ took 1351685100ns,1351.6851ms,1.3516851s</t>
-  </si>
-  <si>
-    <t>Search for PHOENIX 10000 times using LINQ took 1645617000ns,1645.617ms,1.645617s</t>
-  </si>
-  <si>
     <t>Search Speed (PHOENIX)</t>
   </si>
   <si>
@@ -133,12 +106,6 @@
   </si>
   <si>
     <t>Search for a 10000 times using MapReduce took 3758244400ns,3758.2444ms,3.7582444s</t>
-  </si>
-  <si>
-    <t>Search for a 10000 times using Better LINQ took 2754213400ns,2754.2134ms,2.7542134s</t>
-  </si>
-  <si>
-    <t>Search for a 10000 times using LINQ took 3047964800ns,3047.9648ms,3.0479648s</t>
   </si>
   <si>
     <t>Search Speed (a)</t>
@@ -165,6 +132,21 @@
       </rPr>
       <t xml:space="preserve"> All times in milliseconds</t>
     </r>
+  </si>
+  <si>
+    <t>Search for a 10000 times using LINQ took 2754213400ns,2754.2134ms,2.7542134s</t>
+  </si>
+  <si>
+    <t>Search for PHOENIX 10000 times using LINQ took 1351685100ns,1351.6851ms,1.3516851s</t>
+  </si>
+  <si>
+    <t>Search for phoenix 10000 times using LINQ took 1296197700ns,1296.1977ms,1.2961977s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using LINQ took 1155302400ns,1155.3024ms,1.1553024s</t>
+  </si>
+  <si>
+    <t>LINQ indexed 10000 took 39337700ns,39.3377ms,0.0393377s</t>
   </si>
 </sst>
 </file>
@@ -542,262 +524,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC8A29-5AB5-4D23-8762-0EDDCC222635}">
-  <dimension ref="B2:I28"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="3" max="6" width="20.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D3" s="1">
-        <v>39.337699999999998</v>
+        <v>4.5717999999999996</v>
       </c>
       <c r="E3" s="1">
-        <v>4.5717999999999996</v>
+        <v>410.62419999999997</v>
       </c>
       <c r="F3" s="1">
-        <v>410.62419999999997</v>
-      </c>
-      <c r="G3" s="1">
         <v>192.02199999999999</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>1751.4736</v>
       </c>
       <c r="D4" s="1">
-        <v>1155.3024</v>
+        <v>11759.7053</v>
       </c>
       <c r="E4" s="1">
-        <v>11759.7053</v>
+        <v>5.5231000000000003</v>
       </c>
       <c r="F4" s="1">
-        <v>5.5231000000000003</v>
-      </c>
-      <c r="G4" s="1">
         <v>3.7259000000000002</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>1671.8027999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>1296.1976999999999</v>
+        <v>8829.8073000000004</v>
       </c>
       <c r="E5" s="1">
-        <v>8829.8073000000004</v>
+        <v>3.5030999999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>3.5030999999999999</v>
-      </c>
-      <c r="G5" s="1">
         <v>3.5851000000000002</v>
       </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>1645.617</v>
       </c>
       <c r="D6" s="1">
-        <v>1351.6850999999999</v>
+        <v>8942.3024000000005</v>
       </c>
       <c r="E6" s="1">
-        <v>8942.3024000000005</v>
+        <v>3.3422000000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>3.3422000000000001</v>
-      </c>
-      <c r="G6" s="1">
         <v>3.8913000000000002</v>
       </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>3047.9648000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>2754.2134000000001</v>
+        <v>3758.2444</v>
       </c>
       <c r="E7" s="1">
-        <v>3758.2444</v>
+        <v>2508.1821</v>
       </c>
       <c r="F7" s="1">
-        <v>2508.1821</v>
-      </c>
-      <c r="G7" s="1">
         <v>0.3337</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="16.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I11" t="s">
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I12" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I16" t="s">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" t="s">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" t="s">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" t="s">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I22" t="s">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:G7">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C4:F7">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -808,8 +749,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:G3">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C3:F3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -826,6 +767,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054EBD27ED9BF1E4BB36A95F3F6987A28" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a41d8cc0a6549a7caf51c3633475033">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74ab4f5f-b64a-4469-8387-761523e8d0b8" xmlns:ns4="5913ab3c-5f4c-4b7b-81a5-788564ebdc9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452f434b42b41686491482dc5e291913" ns3:_="" ns4:_="">
     <xsd:import namespace="74ab4f5f-b64a-4469-8387-761523e8d0b8"/>
@@ -1054,22 +1010,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8475A380-C3F1-452E-8956-4F529FB4D396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="5913ab3c-5f4c-4b7b-81a5-788564ebdc9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="74ab4f5f-b64a-4469-8387-761523e8d0b8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BBFC47-88CA-4307-9B43-1DDE94FBFF05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAD4AB7-984C-4E69-9FD3-A15EF06D713A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1086,29 +1052,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BBFC47-88CA-4307-9B43-1DDE94FBFF05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8475A380-C3F1-452E-8956-4F529FB4D396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5913ab3c-5f4c-4b7b-81a5-788564ebdc9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="74ab4f5f-b64a-4469-8387-761523e8d0b8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/FastSearch.xlsx
+++ b/FastSearch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FastSearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mill5-my.sharepoint.com/personal/rich_mill5_com/Documents/Documents/GitHub/FastSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D51F8-4C42-4E00-9955-0AA3CD2A4363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{127D51F8-4C42-4E00-9955-0AA3CD2A4363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F5F2F0-C226-4DAD-9887-06982C567454}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{E7B18358-42ED-4B76-8751-3D0FF32E4F52}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E7B18358-42ED-4B76-8751-3D0FF32E4F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,44 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Search for phoenix 10000 times using Character Tree took 3585100ns,3.5851ms,0.0035851s</t>
-  </si>
-  <si>
-    <t>Search for phoenix 10000 times using Hash took 3503100ns,3.5031ms,0.0035031s</t>
-  </si>
-  <si>
-    <t>Search for phoenix 10000 times using MapReduce took 8829807300ns,8829.8073ms,8.8298073s</t>
-  </si>
-  <si>
-    <t>Search for catherine 10000 times using Character Tree took 3725900ns,3.7259ms,0.0037259s</t>
-  </si>
-  <si>
-    <t>Search for catherine 10000 times using Hash took 5523100ns,5.5231ms,0.0055231s</t>
-  </si>
-  <si>
-    <t>Search for catherine 10000 times using MapReduce took 11759705300ns,11759.7053ms,11.7597053s</t>
-  </si>
-  <si>
-    <t>Character Tree indexed 10000 took 192022000ns,192.022ms,0.192022s</t>
-  </si>
-  <si>
-    <t>Hash indexed 10000 took 410624200ns,410.6242ms,0.4106242s</t>
-  </si>
-  <si>
-    <t>Map Reduce indexed 10000 took 4571800ns,4.5718ms,0.0045718s</t>
-  </si>
-  <si>
-    <t>Load 10M passwords took 1214748400ns,1214.7484ms,1.2147484s</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>LINQ</t>
   </si>
   <si>
-    <t>MapReduce</t>
-  </si>
-  <si>
     <t>Hash</t>
   </si>
   <si>
@@ -87,25 +53,7 @@
     <t>Search Speed (phoenix)</t>
   </si>
   <si>
-    <t>Search for PHOENIX 10000 times using Character Tree took 3891300ns,3.8913ms,0.0038913s</t>
-  </si>
-  <si>
-    <t>Search for PHOENIX 10000 times using Hash took 3342200ns,3.3422ms,0.0033422s</t>
-  </si>
-  <si>
-    <t>Search for PHOENIX 10000 times using MapReduce took 8942302400ns,8942.3024ms,8.9423024s</t>
-  </si>
-  <si>
     <t>Search Speed (PHOENIX)</t>
-  </si>
-  <si>
-    <t>Search for a 10000 times using Character Tree took 333700ns,0.3337ms,0.0003337s</t>
-  </si>
-  <si>
-    <t>Search for a 10000 times using Hash took 2508182100ns,2508.1821ms,2.5081821s</t>
-  </si>
-  <si>
-    <t>Search for a 10000 times using MapReduce took 3758244400ns,3758.2444ms,3.7582444s</t>
   </si>
   <si>
     <t>Search Speed (a)</t>
@@ -134,19 +82,97 @@
     </r>
   </si>
   <si>
-    <t>Search for a 10000 times using LINQ took 2754213400ns,2754.2134ms,2.7542134s</t>
-  </si>
-  <si>
-    <t>Search for PHOENIX 10000 times using LINQ took 1351685100ns,1351.6851ms,1.3516851s</t>
-  </si>
-  <si>
-    <t>Search for phoenix 10000 times using LINQ took 1296197700ns,1296.1977ms,1.2961977s</t>
-  </si>
-  <si>
-    <t>Search for catherine 10000 times using LINQ took 1155302400ns,1155.3024ms,1.1553024s</t>
-  </si>
-  <si>
-    <t>LINQ indexed 10000 took 39337700ns,39.3377ms,0.0393377s</t>
+    <t>Search for a 10000 times using Character Tree took 219800ns,0.2198ms,0.0002198s</t>
+  </si>
+  <si>
+    <t>Search for a 10000 times using Hash took 2137100ns,2.1371ms,0.0021371s</t>
+  </si>
+  <si>
+    <t>Search for a 10000 times using LINQ took 1838800300ns,1838.8003ms,1.8388003s</t>
+  </si>
+  <si>
+    <t>Search for PHOENIX 10000 times using Character Tree took 1500300ns,1.5003ms,0.0015003s</t>
+  </si>
+  <si>
+    <t>Search for PHOENIX 10000 times using Hash took 1943100ns,1.9431ms,0.0019431s</t>
+  </si>
+  <si>
+    <t>Search for PHOENIX 10000 times using LINQ took 917445500ns,917.4455ms,0.9174455s</t>
+  </si>
+  <si>
+    <t>Search for pheonix 10000 times using Character Tree took 1323100ns,1.3231ms,0.0013231s</t>
+  </si>
+  <si>
+    <t>Search for pheonix 10000 times using Hash took 2150500ns,2.1505ms,0.0021505s</t>
+  </si>
+  <si>
+    <t>Search for pheonix 10000 times using LINQ took 906721200ns,906.7212ms,0.9067212s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using Character Tree took 1821700ns,1.8217ms,0.0018217s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using Hash took 2079800ns,2.0798ms,0.0020798s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using LINQ took 770326100ns,770.3261ms,0.7703261s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using Character Tree took 1828600ns,1.8286ms,0.0018286s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using Hash took 2019299.9999999998ns,2.0193ms,0.0020193s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using LINQ took 757432300ns,757.4323ms,0.7574323s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using Character Tree took 2417400ns,2.4174ms,0.0024174s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using Hash took 2823000ns,2.823ms,0.002823s</t>
+  </si>
+  <si>
+    <t>Search for catherine 10000 times using LINQ took 1032640500ns,1032.6405ms,1.0326405s</t>
+  </si>
+  <si>
+    <t>Character Tree indexed 10000 took 206956500ns,206.9565ms,0.2069565s</t>
+  </si>
+  <si>
+    <t>Hash indexed 10000 took 203584300ns,203.5843ms,0.2035843s</t>
+  </si>
+  <si>
+    <t>LINQ indexed 10000 took 371300ns,0.3713ms,0.0003713s</t>
+  </si>
+  <si>
+    <t>Load 10M passwords took 1356523900ns,1356.5239ms,1.3565239s</t>
+  </si>
+  <si>
+    <t>Character Tree indexed 10000 took 133354000.00000001ns,133.354ms,0.133354s</t>
+  </si>
+  <si>
+    <t>Hash indexed 10000 took 263571000.00000003ns,263.571ms,0.263571s</t>
+  </si>
+  <si>
+    <t>Load 10M passwords took 1298160300ns,1298.1603ms,1.2981603s</t>
+  </si>
+  <si>
+    <t>Character Tree indexed 10000 took 135747000ns,135.747ms,0.135747s</t>
+  </si>
+  <si>
+    <t>Hash indexed 10000 took 258288300ns,258.2883ms,0.2582883s</t>
+  </si>
+  <si>
+    <t>LINQ indexed 10000 took 373600ns,0.3736ms,0.0003736s</t>
+  </si>
+  <si>
+    <t>Load 10M passwords took 1041583900.0000001ns,1041.5839ms,1.0415839s</t>
+  </si>
+  <si>
+    <t>Search Speed (bo)</t>
+  </si>
+  <si>
+    <t>Search Speed (x)</t>
   </si>
 </sst>
 </file>
@@ -524,220 +550,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DC8A29-5AB5-4D23-8762-0EDDCC222635}">
-  <dimension ref="B2:H28"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.7890625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>203.58430000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>206.95650000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>770.3261</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0798000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.8217000000000001</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>906.72119999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.1505000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.3230999999999999</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>917.44550000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.9431</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.5003</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1838.8003000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.1371000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.2198</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1158.7082</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.3069000000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.5717999999999996</v>
-      </c>
-      <c r="E3" s="1">
-        <v>410.62419999999997</v>
-      </c>
-      <c r="F3" s="1">
-        <v>192.02199999999999</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1175.1202000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.1442999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1">
+        <f>ROUND(C4/E4,0)</f>
+        <v>423</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1">
+        <f>ROUND(C5/E5,0)</f>
+        <v>685</v>
+      </c>
+      <c r="G15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1751.4736</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11759.7053</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.5231000000000003</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3.7259000000000002</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1">
+        <f>ROUND(C6/E6,0)</f>
+        <v>612</v>
+      </c>
+      <c r="G16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1671.8027999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8829.8073000000004</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.5030999999999999</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.5851000000000002</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1">
+        <f>ROUND(C7/E7,0)</f>
+        <v>8366</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1645.617</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8942.3024000000005</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.3422000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.8913000000000002</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="1">
+        <f>ROUND(C8/E8,0)</f>
+        <v>1332</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="1">
+        <f>ROUND(C9/E9,0)</f>
+        <v>5317</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3047.9648000000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3758.2444</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2508.1821</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.3337</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="16.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H16" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H26" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H28" t="s">
-        <v>9</v>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:F7">
+  <conditionalFormatting sqref="C4:E7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:E3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:E4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -749,8 +896,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:F3">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C5:E5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E6">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -767,21 +926,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054EBD27ED9BF1E4BB36A95F3F6987A28" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a41d8cc0a6549a7caf51c3633475033">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74ab4f5f-b64a-4469-8387-761523e8d0b8" xmlns:ns4="5913ab3c-5f4c-4b7b-81a5-788564ebdc9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452f434b42b41686491482dc5e291913" ns3:_="" ns4:_="">
     <xsd:import namespace="74ab4f5f-b64a-4469-8387-761523e8d0b8"/>
@@ -1010,32 +1154,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8475A380-C3F1-452E-8956-4F529FB4D396}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5913ab3c-5f4c-4b7b-81a5-788564ebdc9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="74ab4f5f-b64a-4469-8387-761523e8d0b8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BBFC47-88CA-4307-9B43-1DDE94FBFF05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAD4AB7-984C-4E69-9FD3-A15EF06D713A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1052,4 +1186,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BBFC47-88CA-4307-9B43-1DDE94FBFF05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8475A380-C3F1-452E-8956-4F529FB4D396}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="5913ab3c-5f4c-4b7b-81a5-788564ebdc9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="74ab4f5f-b64a-4469-8387-761523e8d0b8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>